--- a/global/Hero.xlsx
+++ b/global/Hero.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
-    <sheet name="Hero" sheetId="1" r:id="rId4"/>
+    <sheet name="Hero" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -89,43 +92,195 @@
     <t>string</t>
   </si>
   <si>
-    <t>英雄1</t>
-  </si>
-  <si>
-    <t>英雄2</t>
+    <t>demo版本防战</t>
+  </si>
+  <si>
+    <t>demo版本狂战</t>
+  </si>
+  <si>
+    <t>demo版本法师</t>
+  </si>
+  <si>
+    <t>demo版本治疗</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="SimSun"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="SimSun"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="9"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -135,13 +290,199 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
-        <bgColor auto="1"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="11"/>
-        <bgColor auto="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -155,42 +496,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -198,39 +513,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -238,105 +552,347 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="10"/>
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff92d050"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00AAAAAA"/>
+      <rgbColor rgb="0092D050"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office 主题​​">
       <a:dk1>
@@ -462,7 +1018,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -471,7 +1027,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -480,7 +1036,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -554,13 +1110,12 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
@@ -580,8 +1135,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -610,8 +1164,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -636,8 +1189,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -662,8 +1214,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -688,8 +1239,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -714,8 +1264,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -740,8 +1289,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -766,8 +1314,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -792,8 +1339,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -818,8 +1364,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -832,9 +1377,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -849,13 +1400,12 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
@@ -875,8 +1425,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -901,8 +1450,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -927,8 +1475,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -953,8 +1500,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -979,8 +1525,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1005,8 +1550,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1031,8 +1575,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1057,8 +1600,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1083,8 +1625,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1109,8 +1650,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1123,9 +1663,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1136,8 +1682,6 @@
           <a:noFill/>
           <a:miter lim="400000"/>
         </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
@@ -1157,8 +1701,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1187,8 +1730,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1213,8 +1755,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1239,8 +1780,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1265,8 +1805,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1291,8 +1830,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1317,8 +1855,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1343,8 +1880,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1369,8 +1905,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1395,8 +1930,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1409,9 +1943,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
@@ -1420,27 +1960,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:D10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.35" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.35" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6" style="1" customWidth="1"/>
-    <col min="6" max="6" width="6.35156" style="1" customWidth="1"/>
-    <col min="7" max="7" width="6" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.8516" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.3516" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.35" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.125" style="1" customWidth="1"/>
     <col min="10" max="16384" width="6" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" ht="14" customHeight="1" spans="1:9">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
@@ -1452,194 +1995,222 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" ht="47" customHeight="1">
+    <row r="2" ht="47" customHeight="1" spans="1:9">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
-      <c r="C2" t="s" s="4">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" t="s" s="4">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" t="s" s="4">
+      <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
-    <row r="3" ht="16.15" customHeight="1">
+    <row r="3" ht="16.15" customHeight="1" spans="1:9">
       <c r="A3" s="3"/>
-      <c r="B3" t="s" s="5">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="6">
+      <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="7">
+      <c r="D3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="8">
+      <c r="E3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="8">
+      <c r="F3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="8">
+      <c r="G3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="8">
+      <c r="H3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="8">
+      <c r="I3" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="16.15" customHeight="1">
+    <row r="4" ht="16.15" customHeight="1" spans="1:9">
       <c r="A4" s="3"/>
-      <c r="B4" t="s" s="5">
+      <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s" s="6">
+      <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" t="s" s="7">
+      <c r="D4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" t="s" s="8">
+      <c r="E4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" t="s" s="8">
+      <c r="F4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G4" t="s" s="8">
+      <c r="G4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H4" t="s" s="8">
+      <c r="H4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I4" t="s" s="8">
+      <c r="I4" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" ht="16.15" customHeight="1">
+    <row r="5" ht="16.15" customHeight="1" spans="1:9">
       <c r="A5" s="3"/>
-      <c r="B5" t="s" s="5">
+      <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" t="s" s="7">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
     </row>
-    <row r="6" ht="16.15" customHeight="1">
+    <row r="6" ht="16.15" customHeight="1" spans="1:9">
       <c r="A6" s="3"/>
-      <c r="B6" t="s" s="5">
+      <c r="B6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s" s="6">
+      <c r="C6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s" s="7">
+      <c r="D6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E6" t="s" s="8">
+      <c r="E6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F6" t="s" s="8">
+      <c r="F6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G6" t="s" s="8">
+      <c r="G6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H6" t="s" s="8">
+      <c r="H6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I6" t="s" s="8">
+      <c r="I6" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" ht="25" customHeight="1">
+    <row r="7" ht="25" customHeight="1" spans="1:9">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="9">
+      <c r="C7" s="5">
         <v>1</v>
       </c>
-      <c r="D7" t="s" s="10">
+      <c r="D7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="5">
         <v>0</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="5">
         <v>0</v>
       </c>
-      <c r="G7" s="9">
-        <v>0</v>
-      </c>
-      <c r="H7" s="9">
+      <c r="G7" s="5">
+        <v>1</v>
+      </c>
+      <c r="H7" s="5">
         <v>50</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="5">
         <v>30</v>
       </c>
     </row>
-    <row r="8" ht="25" customHeight="1">
+    <row r="8" ht="25" customHeight="1" spans="1:9">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="11">
+      <c r="C8" s="5">
         <v>2</v>
       </c>
-      <c r="D8" t="s" s="2">
+      <c r="D8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="5">
         <v>1</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="5">
         <v>1</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="5">
+        <v>2</v>
+      </c>
+      <c r="H8" s="5">
+        <v>80</v>
+      </c>
+      <c r="I8" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" ht="16.15" customHeight="1" spans="1:9">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="5">
+        <v>3</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>2</v>
+      </c>
+      <c r="G9" s="3">
+        <v>3</v>
+      </c>
+      <c r="H9" s="5">
+        <v>50</v>
+      </c>
+      <c r="I9" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" ht="14" customHeight="1" spans="1:9">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="5">
+        <v>4</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="3">
         <v>1</v>
       </c>
-      <c r="H8" s="11">
+      <c r="F10" s="3">
+        <v>3</v>
+      </c>
+      <c r="G10" s="3">
+        <v>4</v>
+      </c>
+      <c r="H10" s="5">
         <v>80</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I10" s="5">
         <v>50</v>
       </c>
-    </row>
-    <row r="9" ht="16.15" customHeight="1">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" ht="14" customHeight="1">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/global/Hero.xlsx
+++ b/global/Hero.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="29560" windowHeight="17020"/>
   </bookViews>
   <sheets>
     <sheet name="Hero" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -26,9 +26,11 @@
 1:SSR</t>
   </si>
   <si>
-    <t>0:自然 +    <t>0:自然
 1:艺术 +
 2:文明 +
 3:破灭</t>
   </si>
   <si>
@@ -50,10 +52,10 @@
     <t>attId</t>
   </si>
   <si>
-    <t>chipCompose</t>
-  </si>
-  <si>
-    <t>chipTransform</t>
+    <t>fragmentCompose</t>
+  </si>
+  <si>
+    <t>fragmentTransform</t>
   </si>
   <si>
     <t>导出字段描述</t>
@@ -110,9 +112,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -127,6 +129,134 @@
       <color indexed="8"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -144,29 +274,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -174,111 +281,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -301,187 +303,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,23 +515,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -545,6 +541,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,243 +596,228 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0"/>
   <colors>
@@ -1147,7 +1152,7 @@
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:sym typeface="Helvetica Neue" panose="02000503000000020004"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1713,7 +1718,7 @@
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:sym typeface="Helvetica Neue" panose="02000503000000020004"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1960,24 +1965,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:D10"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.35" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.35" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.3461538461538" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.3461538461538" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.35" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.3461538461538" style="1" customWidth="1"/>
     <col min="5" max="5" width="16.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.25" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.4615384615385" style="1" customWidth="1"/>
     <col min="9" max="9" width="20.125" style="1" customWidth="1"/>
     <col min="10" max="16384" width="6" style="1" customWidth="1"/>
   </cols>
@@ -1995,7 +2000,7 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" ht="47" customHeight="1" spans="1:9">
+    <row r="2" ht="68" spans="1:9">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="2" t="s">
@@ -2005,7 +2010,7 @@
       <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="G2" s="2"/>
@@ -2209,7 +2214,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>

--- a/global/Hero.xlsx
+++ b/global/Hero.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29560" windowHeight="17020"/>
+    <workbookView windowWidth="31240" windowHeight="17020"/>
   </bookViews>
   <sheets>
     <sheet name="Hero" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -34,6 +34,14 @@
 3:破灭</t>
   </si>
   <si>
+    <t>0: 单手剑
+1: 双手剑
+2: 长柄
+3: 手枪
+4: 法杖
+5: 召唤物</t>
+  </si>
+  <si>
     <t>导出字段名</t>
   </si>
   <si>
@@ -49,6 +57,9 @@
     <t>race</t>
   </si>
   <si>
+    <t>weaponType</t>
+  </si>
+  <si>
     <t>attId</t>
   </si>
   <si>
@@ -68,6 +79,9 @@
   </si>
   <si>
     <t>种族</t>
+  </si>
+  <si>
+    <t>武器类型</t>
   </si>
   <si>
     <t>属性id</t>
@@ -111,10 +125,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -145,17 +159,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -168,7 +183,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -184,7 +199,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,16 +244,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,9 +274,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,38 +290,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -309,181 +323,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,11 +535,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,15 +579,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,160 +623,145 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1967,10 +1981,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1"/>
@@ -1980,14 +1994,14 @@
     <col min="3" max="3" width="8.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.3461538461538" style="1" customWidth="1"/>
     <col min="5" max="5" width="16.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.4615384615385" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="6" style="1" customWidth="1"/>
+    <col min="6" max="7" width="16.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.4615384615385" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="6" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14" customHeight="1" spans="1:9">
+    <row r="1" ht="14" customHeight="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1999,8 +2013,9 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
     </row>
-    <row r="2" ht="68" spans="1:9">
+    <row r="2" ht="101" spans="1:10">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="2" t="s">
@@ -2013,114 +2028,127 @@
       <c r="F2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="G2" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
     </row>
-    <row r="3" ht="16.15" customHeight="1" spans="1:9">
+    <row r="3" ht="16.15" customHeight="1" spans="1:10">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="4" ht="16.15" customHeight="1" spans="1:9">
+    <row r="4" ht="16.15" customHeight="1" spans="1:10">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="5" ht="16.15" customHeight="1" spans="1:9">
+    <row r="5" ht="16.15" customHeight="1" spans="1:10">
       <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
     </row>
-    <row r="6" ht="16.15" customHeight="1" spans="1:9">
+    <row r="6" ht="16.15" customHeight="1" spans="1:10">
       <c r="A6" s="3"/>
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="7" ht="25" customHeight="1" spans="1:9">
+    <row r="7" ht="25" customHeight="1" spans="1:10">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="5">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E7" s="5">
         <v>0</v>
@@ -2129,23 +2157,26 @@
         <v>0</v>
       </c>
       <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
         <v>1</v>
       </c>
-      <c r="H7" s="5">
+      <c r="I7" s="5">
         <v>50</v>
       </c>
-      <c r="I7" s="5">
+      <c r="J7" s="5">
         <v>30</v>
       </c>
     </row>
-    <row r="8" ht="25" customHeight="1" spans="1:9">
+    <row r="8" ht="25" customHeight="1" spans="1:10">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="5">
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E8" s="5">
         <v>1</v>
@@ -2154,23 +2185,26 @@
         <v>1</v>
       </c>
       <c r="G8" s="5">
+        <v>1</v>
+      </c>
+      <c r="H8" s="5">
         <v>2</v>
       </c>
-      <c r="H8" s="5">
+      <c r="I8" s="5">
         <v>80</v>
       </c>
-      <c r="I8" s="5">
+      <c r="J8" s="5">
         <v>50</v>
       </c>
     </row>
-    <row r="9" ht="16.15" customHeight="1" spans="1:9">
+    <row r="9" ht="16.15" customHeight="1" spans="1:10">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="5">
         <v>3</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
@@ -2179,23 +2213,26 @@
         <v>2</v>
       </c>
       <c r="G9" s="3">
+        <v>2</v>
+      </c>
+      <c r="H9" s="3">
         <v>3</v>
       </c>
-      <c r="H9" s="5">
+      <c r="I9" s="5">
         <v>50</v>
       </c>
-      <c r="I9" s="5">
+      <c r="J9" s="5">
         <v>30</v>
       </c>
     </row>
-    <row r="10" ht="14" customHeight="1" spans="1:9">
+    <row r="10" ht="14" customHeight="1" spans="1:10">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="5">
         <v>4</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
@@ -2204,12 +2241,15 @@
         <v>3</v>
       </c>
       <c r="G10" s="3">
+        <v>3</v>
+      </c>
+      <c r="H10" s="3">
         <v>4</v>
       </c>
-      <c r="H10" s="5">
+      <c r="I10" s="5">
         <v>80</v>
       </c>
-      <c r="I10" s="5">
+      <c r="J10" s="5">
         <v>50</v>
       </c>
     </row>

--- a/global/Hero.xlsx
+++ b/global/Hero.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -42,6 +42,21 @@
 5: 召唤物</t>
   </si>
   <si>
+    <t>初始武器</t>
+  </si>
+  <si>
+    <t>初始衣服</t>
+  </si>
+  <si>
+    <t>初始鞋子</t>
+  </si>
+  <si>
+    <t>初始饰品</t>
+  </si>
+  <si>
+    <t>此列由前4列自动生成，不用填写</t>
+  </si>
+  <si>
     <t>导出字段名</t>
   </si>
   <si>
@@ -60,6 +75,9 @@
     <t>weaponType</t>
   </si>
   <si>
+    <t>initEquipId</t>
+  </si>
+  <si>
     <t>attId</t>
   </si>
   <si>
@@ -84,6 +102,21 @@
     <t>武器类型</t>
   </si>
   <si>
+    <t>武器id</t>
+  </si>
+  <si>
+    <t>衣服id</t>
+  </si>
+  <si>
+    <t>鞋子id</t>
+  </si>
+  <si>
+    <t>饰品id</t>
+  </si>
+  <si>
+    <t>装备位置</t>
+  </si>
+  <si>
     <t>属性id</t>
   </si>
   <si>
@@ -106,6 +139,9 @@
   </si>
   <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>[]int32</t>
   </si>
   <si>
     <t>demo版本防战</t>
@@ -130,7 +166,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -141,6 +177,11 @@
       <b/>
       <sz val="9"/>
       <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -296,7 +337,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -312,6 +353,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="11"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -626,152 +673,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -779,6 +826,9 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1981,10 +2031,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1"/>
@@ -1995,13 +2045,15 @@
     <col min="4" max="4" width="17.3461538461538" style="1" customWidth="1"/>
     <col min="5" max="5" width="16.75" style="1" customWidth="1"/>
     <col min="6" max="7" width="16.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.4615384615385" style="1" customWidth="1"/>
-    <col min="10" max="10" width="20.125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="6" style="1" customWidth="1"/>
+    <col min="8" max="11" width="9.42307692307692" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16.1538461538462" style="1" customWidth="1"/>
+    <col min="13" max="13" width="16.75" style="1" customWidth="1"/>
+    <col min="14" max="14" width="18.4615384615385" style="1" customWidth="1"/>
+    <col min="15" max="15" width="20.125" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="6" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14" customHeight="1" spans="1:10">
+    <row r="1" ht="14" customHeight="1" spans="1:15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2014,8 +2066,13 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
     </row>
-    <row r="2" ht="101" spans="1:10">
+    <row r="2" ht="101" spans="1:15">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="2" t="s">
@@ -2031,78 +2088,115 @@
       <c r="G2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+      <c r="H2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
     </row>
-    <row r="3" ht="16.15" customHeight="1" spans="1:10">
+    <row r="3" ht="16.15" customHeight="1" spans="1:15">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="4" ht="16.15" customHeight="1" spans="1:10">
+    <row r="4" ht="16.15" customHeight="1" spans="1:15">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>21</v>
+        <v>27</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="5" ht="16.15" customHeight="1" spans="1:10">
+    <row r="5" ht="16.15" customHeight="1" spans="1:15">
       <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -2110,45 +2204,57 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
     </row>
-    <row r="6" ht="16.15" customHeight="1" spans="1:10">
+    <row r="6" ht="16.15" customHeight="1" spans="1:15">
       <c r="A6" s="3"/>
       <c r="B6" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>25</v>
+        <v>36</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="7" ht="25" customHeight="1" spans="1:10">
+    <row r="7" ht="25" customHeight="1" spans="1:15">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="5">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E7" s="5">
         <v>0</v>
@@ -2160,23 +2266,39 @@
         <v>0</v>
       </c>
       <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0</v>
+      </c>
+      <c r="L7" s="5" t="str">
+        <f>H7&amp;","&amp;I7&amp;","&amp;J7&amp;","&amp;K7</f>
+        <v>0,0,0,0</v>
+      </c>
+      <c r="M7" s="5">
         <v>1</v>
       </c>
-      <c r="I7" s="5">
+      <c r="N7" s="5">
         <v>50</v>
       </c>
-      <c r="J7" s="5">
+      <c r="O7" s="5">
         <v>30</v>
       </c>
     </row>
-    <row r="8" ht="25" customHeight="1" spans="1:10">
+    <row r="8" ht="25" customHeight="1" spans="1:15">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="5">
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="E8" s="5">
         <v>1</v>
@@ -2188,23 +2310,39 @@
         <v>1</v>
       </c>
       <c r="H8" s="5">
+        <v>1</v>
+      </c>
+      <c r="I8" s="5">
+        <v>1</v>
+      </c>
+      <c r="J8" s="5">
+        <v>1</v>
+      </c>
+      <c r="K8" s="5">
+        <v>1</v>
+      </c>
+      <c r="L8" s="5" t="str">
+        <f>H8&amp;","&amp;I8&amp;","&amp;J8&amp;","&amp;K8</f>
+        <v>1,1,1,1</v>
+      </c>
+      <c r="M8" s="5">
         <v>2</v>
       </c>
-      <c r="I8" s="5">
+      <c r="N8" s="5">
         <v>80</v>
       </c>
-      <c r="J8" s="5">
+      <c r="O8" s="5">
         <v>50</v>
       </c>
     </row>
-    <row r="9" ht="16.15" customHeight="1" spans="1:10">
+    <row r="9" ht="16.15" customHeight="1" spans="1:15">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="5">
         <v>3</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
@@ -2216,23 +2354,39 @@
         <v>2</v>
       </c>
       <c r="H9" s="3">
+        <v>2</v>
+      </c>
+      <c r="I9" s="3">
+        <v>2</v>
+      </c>
+      <c r="J9" s="3">
+        <v>2</v>
+      </c>
+      <c r="K9" s="3">
+        <v>2</v>
+      </c>
+      <c r="L9" s="5" t="str">
+        <f>H9&amp;","&amp;I9&amp;","&amp;J9&amp;","&amp;K9</f>
+        <v>2,2,2,2</v>
+      </c>
+      <c r="M9" s="3">
         <v>3</v>
       </c>
-      <c r="I9" s="5">
+      <c r="N9" s="5">
         <v>50</v>
       </c>
-      <c r="J9" s="5">
+      <c r="O9" s="5">
         <v>30</v>
       </c>
     </row>
-    <row r="10" ht="14" customHeight="1" spans="1:10">
+    <row r="10" ht="14" customHeight="1" spans="1:15">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="5">
         <v>4</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
@@ -2244,12 +2398,28 @@
         <v>3</v>
       </c>
       <c r="H10" s="3">
+        <v>3</v>
+      </c>
+      <c r="I10" s="3">
+        <v>3</v>
+      </c>
+      <c r="J10" s="3">
+        <v>3</v>
+      </c>
+      <c r="K10" s="3">
+        <v>3</v>
+      </c>
+      <c r="L10" s="5" t="str">
+        <f>H10&amp;","&amp;I10&amp;","&amp;J10&amp;","&amp;K10</f>
+        <v>3,3,3,3</v>
+      </c>
+      <c r="M10" s="3">
         <v>4</v>
       </c>
-      <c r="I10" s="5">
+      <c r="N10" s="5">
         <v>80</v>
       </c>
-      <c r="J10" s="5">
+      <c r="O10" s="5">
         <v>50</v>
       </c>
     </row>

--- a/global/Hero.xlsx
+++ b/global/Hero.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="31240" windowHeight="17020"/>
+    <workbookView windowWidth="29560" windowHeight="17020"/>
   </bookViews>
   <sheets>
     <sheet name="Hero" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -24,6 +24,11 @@
   <si>
     <t>0:SR  1:SSR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0: 
+1:
+</t>
   </si>
   <si>
     <t>0:自然
@@ -69,6 +74,9 @@
     <t>quality</t>
   </si>
   <si>
+    <t>Profession</t>
+  </si>
+  <si>
     <t>race</t>
   </si>
   <si>
@@ -94,6 +102,9 @@
   </si>
   <si>
     <t>品质</t>
+  </si>
+  <si>
+    <t>职业</t>
   </si>
   <si>
     <t>种族</t>
@@ -162,8 +173,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -200,9 +211,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,9 +235,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -231,64 +257,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -302,9 +275,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -330,8 +311,38 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -370,67 +381,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,109 +555,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,39 +594,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -626,6 +604,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -645,17 +643,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -670,145 +657,169 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2031,10 +2042,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1"/>
@@ -2043,17 +2054,17 @@
     <col min="2" max="2" width="17.3461538461538" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.3461538461538" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.75" style="1" customWidth="1"/>
-    <col min="6" max="7" width="16.25" style="1" customWidth="1"/>
-    <col min="8" max="11" width="9.42307692307692" style="1" customWidth="1"/>
-    <col min="12" max="12" width="16.1538461538462" style="1" customWidth="1"/>
-    <col min="13" max="13" width="16.75" style="1" customWidth="1"/>
-    <col min="14" max="14" width="18.4615384615385" style="1" customWidth="1"/>
-    <col min="15" max="15" width="20.125" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="6" style="1" customWidth="1"/>
+    <col min="5" max="6" width="16.75" style="1" customWidth="1"/>
+    <col min="7" max="8" width="16.25" style="1" customWidth="1"/>
+    <col min="9" max="12" width="9.42307692307692" style="1" customWidth="1"/>
+    <col min="13" max="13" width="16.1538461538462" style="1" customWidth="1"/>
+    <col min="14" max="14" width="16.75" style="1" customWidth="1"/>
+    <col min="15" max="15" width="18.4615384615385" style="1" customWidth="1"/>
+    <col min="16" max="16" width="20.125" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="6" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14" customHeight="1" spans="1:15">
+    <row r="1" ht="14" customHeight="1" spans="1:16">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2071,8 +2082,9 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
     </row>
-    <row r="2" ht="101" spans="1:15">
+    <row r="2" ht="101" spans="1:16">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="2" t="s">
@@ -2100,103 +2112,112 @@
       <c r="K2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="2"/>
+      <c r="M2" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
     </row>
-    <row r="3" ht="16.15" customHeight="1" spans="1:15">
+    <row r="3" ht="16.15" customHeight="1" spans="1:16">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
-      <c r="L3" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="L3" s="4"/>
       <c r="M3" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="4" ht="16.15" customHeight="1" spans="1:15">
+    <row r="4" ht="16.15" customHeight="1" spans="1:16">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="5" ht="16.15" customHeight="1" spans="1:15">
+    <row r="5" ht="16.15" customHeight="1" spans="1:16">
       <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -2209,59 +2230,61 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
     </row>
-    <row r="6" ht="16.15" customHeight="1" spans="1:15">
+    <row r="6" ht="16.15" customHeight="1" spans="1:16">
       <c r="A6" s="3"/>
       <c r="B6" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="4"/>
+        <v>39</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
-      <c r="L6" s="4" t="s">
-        <v>38</v>
-      </c>
+      <c r="L6" s="4"/>
       <c r="M6" s="4" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="7" ht="25" customHeight="1" spans="1:15">
+    <row r="7" ht="25" customHeight="1" spans="1:16">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="5">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E7" s="5">
         <v>0</v>
       </c>
-      <c r="F7" s="5">
-        <v>0</v>
-      </c>
+      <c r="F7" s="5"/>
       <c r="G7" s="5">
         <v>0</v>
       </c>
@@ -2277,35 +2300,36 @@
       <c r="K7" s="5">
         <v>0</v>
       </c>
-      <c r="L7" s="5" t="str">
-        <f>H7&amp;","&amp;I7&amp;","&amp;J7&amp;","&amp;K7</f>
+      <c r="L7" s="5">
+        <v>0</v>
+      </c>
+      <c r="M7" s="5" t="str">
+        <f>I7&amp;","&amp;J7&amp;","&amp;K7&amp;","&amp;L7</f>
         <v>0,0,0,0</v>
       </c>
-      <c r="M7" s="5">
+      <c r="N7" s="5">
         <v>1</v>
       </c>
-      <c r="N7" s="5">
+      <c r="O7" s="5">
         <v>50</v>
       </c>
-      <c r="O7" s="5">
+      <c r="P7" s="5">
         <v>30</v>
       </c>
     </row>
-    <row r="8" ht="25" customHeight="1" spans="1:15">
+    <row r="8" ht="25" customHeight="1" spans="1:16">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="5">
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E8" s="5">
         <v>1</v>
       </c>
-      <c r="F8" s="5">
-        <v>1</v>
-      </c>
+      <c r="F8" s="5"/>
       <c r="G8" s="5">
         <v>1</v>
       </c>
@@ -2321,35 +2345,36 @@
       <c r="K8" s="5">
         <v>1</v>
       </c>
-      <c r="L8" s="5" t="str">
-        <f>H8&amp;","&amp;I8&amp;","&amp;J8&amp;","&amp;K8</f>
+      <c r="L8" s="5">
+        <v>1</v>
+      </c>
+      <c r="M8" s="5" t="str">
+        <f>I8&amp;","&amp;J8&amp;","&amp;K8&amp;","&amp;L8</f>
         <v>1,1,1,1</v>
       </c>
-      <c r="M8" s="5">
+      <c r="N8" s="5">
         <v>2</v>
       </c>
-      <c r="N8" s="5">
+      <c r="O8" s="5">
         <v>80</v>
       </c>
-      <c r="O8" s="5">
+      <c r="P8" s="5">
         <v>50</v>
       </c>
     </row>
-    <row r="9" ht="16.15" customHeight="1" spans="1:15">
+    <row r="9" ht="16.15" customHeight="1" spans="1:16">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="5">
         <v>3</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
       </c>
-      <c r="F9" s="3">
-        <v>2</v>
-      </c>
+      <c r="F9" s="3"/>
       <c r="G9" s="3">
         <v>2</v>
       </c>
@@ -2365,35 +2390,36 @@
       <c r="K9" s="3">
         <v>2</v>
       </c>
-      <c r="L9" s="5" t="str">
-        <f>H9&amp;","&amp;I9&amp;","&amp;J9&amp;","&amp;K9</f>
+      <c r="L9" s="3">
+        <v>2</v>
+      </c>
+      <c r="M9" s="5" t="str">
+        <f>I9&amp;","&amp;J9&amp;","&amp;K9&amp;","&amp;L9</f>
         <v>2,2,2,2</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3</v>
       </c>
-      <c r="N9" s="5">
+      <c r="O9" s="5">
         <v>50</v>
       </c>
-      <c r="O9" s="5">
+      <c r="P9" s="5">
         <v>30</v>
       </c>
     </row>
-    <row r="10" ht="14" customHeight="1" spans="1:15">
+    <row r="10" ht="14" customHeight="1" spans="1:16">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="5">
         <v>4</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
       </c>
-      <c r="F10" s="3">
-        <v>3</v>
-      </c>
+      <c r="F10" s="3"/>
       <c r="G10" s="3">
         <v>3</v>
       </c>
@@ -2409,17 +2435,20 @@
       <c r="K10" s="3">
         <v>3</v>
       </c>
-      <c r="L10" s="5" t="str">
-        <f>H10&amp;","&amp;I10&amp;","&amp;J10&amp;","&amp;K10</f>
+      <c r="L10" s="3">
+        <v>3</v>
+      </c>
+      <c r="M10" s="5" t="str">
+        <f>I10&amp;","&amp;J10&amp;","&amp;K10&amp;","&amp;L10</f>
         <v>3,3,3,3</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4</v>
       </c>
-      <c r="N10" s="5">
+      <c r="O10" s="5">
         <v>80</v>
       </c>
-      <c r="O10" s="5">
+      <c r="P10" s="5">
         <v>50</v>
       </c>
     </row>

--- a/global/Hero.xlsx
+++ b/global/Hero.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29560" windowHeight="17020"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Hero" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -26,8 +26,15 @@
 1:SSR</t>
   </si>
   <si>
-    <t xml:space="preserve">0: 
-1:
+    <t xml:space="preserve">0:先锋
+1:重装
+2:阻击
+3:法师
+4:医疗
+5:侠盗
+6:护卫
+7:特种
+8:术士
 </t>
   </si>
   <si>
@@ -172,10 +179,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -198,7 +205,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,6 +218,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
@@ -218,32 +233,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,6 +256,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -265,9 +271,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,7 +287,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,44 +316,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -342,11 +341,19 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -375,13 +382,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,73 +526,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,91 +562,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -584,11 +591,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -610,59 +647,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -681,151 +668,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -834,65 +841,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0"/>
   <colors>
@@ -2040,26 +2047,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.3461538461538" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.3461538461538" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.35" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.35" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.3461538461538" style="1" customWidth="1"/>
-    <col min="5" max="6" width="16.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.35" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.625" style="1" customWidth="1"/>
     <col min="7" max="8" width="16.25" style="1" customWidth="1"/>
-    <col min="9" max="12" width="9.42307692307692" style="1" customWidth="1"/>
-    <col min="13" max="13" width="16.1538461538462" style="1" customWidth="1"/>
+    <col min="9" max="12" width="9.425" style="1" customWidth="1"/>
+    <col min="13" max="13" width="16.15" style="1" customWidth="1"/>
     <col min="14" max="14" width="16.75" style="1" customWidth="1"/>
-    <col min="15" max="15" width="18.4615384615385" style="1" customWidth="1"/>
+    <col min="15" max="15" width="18.4583333333333" style="1" customWidth="1"/>
     <col min="16" max="16" width="20.125" style="1" customWidth="1"/>
     <col min="17" max="16384" width="6" style="1" customWidth="1"/>
   </cols>
@@ -2084,7 +2092,7 @@
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
     </row>
-    <row r="2" ht="101" spans="1:16">
+    <row r="2" ht="121" customHeight="1" spans="1:16">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="2" t="s">
@@ -2094,25 +2102,25 @@
       <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="M2" s="7" t="s">
@@ -2127,38 +2135,38 @@
       <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4" t="s">
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="P3" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2167,46 +2175,46 @@
       <c r="B4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="O4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="P4" s="5" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2215,157 +2223,161 @@
       <c r="B5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
     </row>
     <row r="6" ht="16.15" customHeight="1" spans="1:16">
       <c r="A6" s="3"/>
       <c r="B6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4" t="s">
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="N6" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="O6" s="4" t="s">
+      <c r="O6" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="P6" s="4" t="s">
+      <c r="P6" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="7" ht="25" customHeight="1" spans="1:16">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="5">
+      <c r="C7" s="6">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="6">
         <v>0</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5">
+      <c r="F7" s="6">
+        <v>1</v>
+      </c>
+      <c r="G7" s="6">
         <v>0</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="6">
         <v>0</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="6">
         <v>0</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="6">
         <v>0</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="6">
         <v>0</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="6">
         <v>0</v>
       </c>
-      <c r="M7" s="5" t="str">
+      <c r="M7" s="6" t="str">
         <f>I7&amp;","&amp;J7&amp;","&amp;K7&amp;","&amp;L7</f>
         <v>0,0,0,0</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N7" s="6">
         <v>1</v>
       </c>
-      <c r="O7" s="5">
+      <c r="O7" s="6">
         <v>50</v>
       </c>
-      <c r="P7" s="5">
+      <c r="P7" s="6">
         <v>30</v>
       </c>
     </row>
     <row r="8" ht="25" customHeight="1" spans="1:16">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="5">
+      <c r="C8" s="6">
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="6">
         <v>1</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5">
+      <c r="F8" s="6">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6">
         <v>1</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="6">
         <v>1</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="6">
         <v>1</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="6">
         <v>1</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="6">
         <v>1</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="6">
         <v>1</v>
       </c>
-      <c r="M8" s="5" t="str">
+      <c r="M8" s="6" t="str">
         <f>I8&amp;","&amp;J8&amp;","&amp;K8&amp;","&amp;L8</f>
         <v>1,1,1,1</v>
       </c>
-      <c r="N8" s="5">
+      <c r="N8" s="6">
         <v>2</v>
       </c>
-      <c r="O8" s="5">
+      <c r="O8" s="6">
         <v>80</v>
       </c>
-      <c r="P8" s="5">
+      <c r="P8" s="6">
         <v>50</v>
       </c>
     </row>
     <row r="9" ht="16.15" customHeight="1" spans="1:16">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="5">
+      <c r="C9" s="6">
         <v>3</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -2374,7 +2386,9 @@
       <c r="E9" s="3">
         <v>0</v>
       </c>
-      <c r="F9" s="3"/>
+      <c r="F9" s="3">
+        <v>3</v>
+      </c>
       <c r="G9" s="3">
         <v>2</v>
       </c>
@@ -2393,24 +2407,24 @@
       <c r="L9" s="3">
         <v>2</v>
       </c>
-      <c r="M9" s="5" t="str">
+      <c r="M9" s="6" t="str">
         <f>I9&amp;","&amp;J9&amp;","&amp;K9&amp;","&amp;L9</f>
         <v>2,2,2,2</v>
       </c>
       <c r="N9" s="3">
         <v>3</v>
       </c>
-      <c r="O9" s="5">
+      <c r="O9" s="6">
         <v>50</v>
       </c>
-      <c r="P9" s="5">
+      <c r="P9" s="6">
         <v>30</v>
       </c>
     </row>
     <row r="10" ht="14" customHeight="1" spans="1:16">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="5">
+      <c r="C10" s="6">
         <v>4</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -2419,7 +2433,9 @@
       <c r="E10" s="3">
         <v>1</v>
       </c>
-      <c r="F10" s="3"/>
+      <c r="F10" s="3">
+        <v>4</v>
+      </c>
       <c r="G10" s="3">
         <v>3</v>
       </c>
@@ -2438,17 +2454,17 @@
       <c r="L10" s="3">
         <v>3</v>
       </c>
-      <c r="M10" s="5" t="str">
+      <c r="M10" s="6" t="str">
         <f>I10&amp;","&amp;J10&amp;","&amp;K10&amp;","&amp;L10</f>
         <v>3,3,3,3</v>
       </c>
       <c r="N10" s="3">
         <v>4</v>
       </c>
-      <c r="O10" s="5">
+      <c r="O10" s="6">
         <v>80</v>
       </c>
-      <c r="P10" s="5">
+      <c r="P10" s="6">
         <v>50</v>
       </c>
     </row>

--- a/global/Hero.xlsx
+++ b/global/Hero.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -69,6 +69,9 @@
     <t>此列由前4列自动生成，不用填写</t>
   </si>
   <si>
+    <t>卡牌1级的属性固定值。目前先用于demo版本，之后再改回正常值。</t>
+  </si>
+  <si>
     <t>导出字段名</t>
   </si>
   <si>
@@ -180,11 +183,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -205,14 +208,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color rgb="FFFF0000"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,31 +235,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,14 +251,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,8 +272,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -309,6 +310,22 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
@@ -316,16 +333,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -339,19 +349,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -382,175 +391,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -607,6 +616,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -617,6 +641,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -647,39 +680,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -688,16 +688,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -706,16 +715,16 @@
     <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -724,119 +733,119 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -847,6 +856,9 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2051,8 +2063,8 @@
   <sheetPr/>
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1"/>
@@ -2126,106 +2138,108 @@
       <c r="M2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="2"/>
+      <c r="N2" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>
     <row r="3" ht="16.15" customHeight="1" spans="1:16">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" ht="16.15" customHeight="1" spans="1:16">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" ht="16.15" customHeight="1" spans="1:16">
       <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -2243,41 +2257,41 @@
     <row r="6" ht="16.15" customHeight="1" spans="1:16">
       <c r="A6" s="3"/>
       <c r="B6" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>39</v>
-      </c>
       <c r="F6" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" ht="25" customHeight="1" spans="1:16">
@@ -2287,7 +2301,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E7" s="6">
         <v>0</v>
@@ -2334,7 +2348,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E8" s="6">
         <v>1</v>
@@ -2381,7 +2395,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
@@ -2428,7 +2442,7 @@
         <v>4</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>

--- a/global/Hero.xlsx
+++ b/global/Hero.xlsx
@@ -69,7 +69,8 @@
     <t>此列由前4列自动生成，不用填写</t>
   </si>
   <si>
-    <t>卡牌1级的属性固定值。目前先用于demo版本，之后再改回正常值。</t>
+    <t>对应att表
+卡牌1级的属性固定值。目前先用于demo版本，之后再改回正常值。目前正常值应该填61</t>
   </si>
   <si>
     <t>导出字段名</t>
@@ -182,10 +183,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -214,21 +215,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -236,7 +222,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,14 +274,69 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,76 +352,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -355,14 +364,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -391,61 +392,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,121 +572,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -600,21 +601,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -626,39 +612,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -680,11 +633,59 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -700,148 +701,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2063,8 +2064,8 @@
   <sheetPr/>
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1"/>

--- a/global/Hero.xlsx
+++ b/global/Hero.xlsx
@@ -13,6 +13,38 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Admin</author>
+  </authors>
+  <commentList>
+    <comment ref="F2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+关联</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
   <si>
@@ -69,8 +101,25 @@
     <t>此列由前4列自动生成，不用填写</t>
   </si>
   <si>
-    <t>对应att表
-卡牌1级的属性固定值。目前先用于demo版本，之后再改回正常值。目前正常值应该填61</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">对应att表
+卡牌1级的属性固定值。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>目前先用于demo版本，之后再改回正常值。目前正常值应该填21</t>
+    </r>
   </si>
   <si>
     <t>导出字段名</t>
@@ -183,12 +232,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -209,9 +258,47 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="SimSun"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -222,16 +309,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -242,8 +330,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,19 +361,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -281,23 +398,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,58 +413,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="36">
@@ -392,187 +457,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -616,6 +681,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -631,31 +714,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -675,21 +744,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -698,151 +752,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2065,7 +2130,7 @@
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1"/>
@@ -2489,5 +2554,6 @@
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/global/Hero.xlsx
+++ b/global/Hero.xlsx
@@ -11,38 +11,6 @@
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
-</file>
-
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Admin</author>
-  </authors>
-  <commentList>
-    <comment ref="F2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Admin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-关联</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -237,7 +205,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -269,9 +237,75 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,36 +320,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
@@ -323,8 +327,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -339,10 +344,25 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -353,63 +373,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -418,17 +386,6 @@
       <name val="SimSun"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -457,6 +414,72 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -469,43 +492,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,126 +595,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -681,24 +638,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -710,21 +649,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -747,8 +671,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -763,151 +687,184 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2130,7 +2087,7 @@
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="N7" sqref="N7:N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1"/>
@@ -2554,6 +2511,5 @@
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/global/Hero.xlsx
+++ b/global/Hero.xlsx
@@ -1,25 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB3E14C-0692-4D8B-BF48-F6C7F599FCCB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hero" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="91">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
   <si>
-    <t>英雄id</t>
+    <t>英雄和怪物id</t>
+  </si>
+  <si>
+    <t>模型资源</t>
+  </si>
+  <si>
+    <t>单位米</t>
   </si>
   <si>
     <t>0:SR @@ -69,25 +81,29 @@
     <t>此列由前4列自动生成，不用填写</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">对应att表
+    <t xml:space="preserve">对应att表
 卡牌1级的属性固定值。
 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t>目前先用于demo版本，之后再改回正常值。目前正常值应该填21</t>
-    </r>
+  </si>
+  <si>
+    <t>Demo版本
+技能1
+普攻攻击</t>
+  </si>
+  <si>
+    <t>Demo版本
+技能2
+战技技能</t>
+  </si>
+  <si>
+    <t>Demo版本
+技能3
+奥义技能</t>
+  </si>
+  <si>
+    <t>Demo版本
+技能4
+残响技能</t>
   </si>
   <si>
     <t>导出字段名</t>
@@ -99,10 +115,16 @@
     <t>name</t>
   </si>
   <si>
+    <t>modelResource</t>
+  </si>
+  <si>
+    <t>modelscope</t>
+  </si>
+  <si>
     <t>quality</t>
   </si>
   <si>
-    <t>Profession</t>
+    <t>profession</t>
   </si>
   <si>
     <t>race</t>
@@ -123,12 +145,27 @@
     <t>fragmentTransform</t>
   </si>
   <si>
+    <t>skill1</t>
+  </si>
+  <si>
+    <t>skill2</t>
+  </si>
+  <si>
+    <t>skill3</t>
+  </si>
+  <si>
+    <t>skill4</t>
+  </si>
+  <si>
     <t>导出字段描述</t>
   </si>
   <si>
     <t>英雄名字</t>
   </si>
   <si>
+    <t>模型范围</t>
+  </si>
+  <si>
     <t>品质</t>
   </si>
   <si>
@@ -165,6 +202,18 @@
     <t>重复获得卡牌转化碎片数</t>
   </si>
   <si>
+    <t>技能1</t>
+  </si>
+  <si>
+    <t>技能2</t>
+  </si>
+  <si>
+    <t>技能3</t>
+  </si>
+  <si>
+    <t>技能4</t>
+  </si>
+  <si>
     <t>字段控制</t>
   </si>
   <si>
@@ -180,32 +229,121 @@
     <t>string</t>
   </si>
   <si>
+    <t>number</t>
+  </si>
+  <si>
     <t>[]int32</t>
   </si>
   <si>
     <t>demo版本防战</t>
   </si>
   <si>
-    <t>demo版本狂战</t>
-  </si>
-  <si>
     <t>demo版本法师</t>
   </si>
   <si>
     <t>demo版本治疗</t>
+  </si>
+  <si>
+    <t>怪物1</t>
+  </si>
+  <si>
+    <t>怪物2</t>
+  </si>
+  <si>
+    <t>怪物3</t>
+  </si>
+  <si>
+    <t>meilin</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>waerjili</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>puluomixiusi</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>demo版本战士</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster02a</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster12b</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster08b</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>big_icon</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>头像</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>半身像</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>yase</t>
+  </si>
+  <si>
+    <t>yase_01</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>puluomixiusi_01</t>
+  </si>
+  <si>
+    <t>puluomixiusi</t>
+  </si>
+  <si>
+    <t>meilin_01</t>
+  </si>
+  <si>
+    <t>meilin</t>
+  </si>
+  <si>
+    <t>dafuni_01</t>
+  </si>
+  <si>
+    <t>dafuni</t>
+  </si>
+  <si>
+    <t>monster12b</t>
+  </si>
+  <si>
+    <t>monster08a</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>0.5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -217,11 +355,13 @@
       <sz val="9"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -230,164 +370,19 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color indexed="8"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="9"/>
       <name val="SimSun"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -414,192 +409,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -622,253 +437,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -884,58 +457,15 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
@@ -1008,6 +538,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1239,7 +772,7 @@
           </a:outerShdw>
         </a:effectLst>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1529,7 +1062,7 @@
           </a:outerShdw>
         </a:effectLst>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1805,7 +1338,7 @@
           <a:miter lim="400000"/>
         </a:ln>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2078,36 +1611,42 @@
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:P10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:X13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7:N10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="X11" sqref="X11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.35" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.35" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.35" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.625" style="1" customWidth="1"/>
-    <col min="7" max="8" width="16.25" style="1" customWidth="1"/>
-    <col min="9" max="12" width="9.425" style="1" customWidth="1"/>
-    <col min="13" max="13" width="16.15" style="1" customWidth="1"/>
-    <col min="14" max="14" width="16.75" style="1" customWidth="1"/>
-    <col min="15" max="15" width="18.4583333333333" style="1" customWidth="1"/>
-    <col min="16" max="16" width="20.125" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="6" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="9.375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="16.125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="16.75" style="1" customWidth="1"/>
+    <col min="19" max="19" width="18.5" style="1" customWidth="1"/>
+    <col min="20" max="20" width="20.125" style="1" customWidth="1"/>
+    <col min="21" max="24" width="9.25" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="6" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14" customHeight="1" spans="1:16">
+    <row r="1" spans="1:24" ht="14.1" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2126,8 +1665,12 @@
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
     </row>
-    <row r="2" ht="121" customHeight="1" spans="1:16">
+    <row r="2" spans="1:24" ht="120.95" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="2" t="s">
@@ -2137,136 +1680,208 @@
       <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="I2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="O2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="P2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
+      <c r="Q2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="V2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="W2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="X2" s="9" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="3" ht="16.15" customHeight="1" spans="1:16">
+    <row r="3" spans="1:24" ht="16.149999999999999" customHeight="1">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="P3" s="5" t="s">
         <v>22</v>
       </c>
+      <c r="I3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="U3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="V3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="W3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="X3" s="10" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="4" ht="16.15" customHeight="1" spans="1:16">
+    <row r="4" spans="1:24" ht="16.149999999999999" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>36</v>
+        <v>45</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="U4" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="V4" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="W4" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="X4" s="10" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="5" ht="16.15" customHeight="1" spans="1:16">
+    <row r="5" spans="1:24" ht="16.149999999999999" customHeight="1">
       <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
+      <c r="F5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>55</v>
+      </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
@@ -2276,73 +1891,105 @@
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
     </row>
-    <row r="6" ht="16.15" customHeight="1" spans="1:16">
+    <row r="6" spans="1:24" ht="16.149999999999999" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="P6" s="5" t="s">
-        <v>40</v>
+        <v>59</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="T6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="U6" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="V6" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="W6" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="X6" s="10" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="7" ht="25" customHeight="1" spans="1:16">
+    <row r="7" spans="1:24" ht="24.95" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="6">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="6">
-        <v>0</v>
-      </c>
-      <c r="F7" s="6">
-        <v>1</v>
-      </c>
-      <c r="G7" s="6">
-        <v>0</v>
-      </c>
-      <c r="H7" s="6">
-        <v>0</v>
+        <v>61</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="I7" s="6">
         <v>0</v>
       </c>
       <c r="J7" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="6">
         <v>0</v>
@@ -2350,46 +1997,70 @@
       <c r="L7" s="6">
         <v>0</v>
       </c>
-      <c r="M7" s="6" t="str">
-        <f>I7&amp;","&amp;J7&amp;","&amp;K7&amp;","&amp;L7</f>
+      <c r="M7" s="6">
+        <v>0</v>
+      </c>
+      <c r="N7" s="6">
+        <v>0</v>
+      </c>
+      <c r="O7" s="6">
+        <v>0</v>
+      </c>
+      <c r="P7" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="6" t="str">
+        <f t="shared" ref="Q7:Q13" si="0">M7&amp;","&amp;N7&amp;","&amp;O7&amp;","&amp;P7</f>
         <v>0,0,0,0</v>
       </c>
-      <c r="N7" s="6">
+      <c r="R7" s="6">
         <v>1</v>
       </c>
-      <c r="O7" s="6">
+      <c r="S7" s="6">
         <v>50</v>
       </c>
-      <c r="P7" s="6">
+      <c r="T7" s="6">
         <v>30</v>
       </c>
+      <c r="U7" s="1">
+        <v>101001</v>
+      </c>
+      <c r="V7" s="1">
+        <v>101002</v>
+      </c>
+      <c r="W7" s="1">
+        <v>101003</v>
+      </c>
+      <c r="X7" s="1">
+        <v>101004</v>
+      </c>
     </row>
-    <row r="8" ht="25" customHeight="1" spans="1:16">
+    <row r="8" spans="1:24" ht="24.95" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="6">
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="6">
-        <v>1</v>
-      </c>
-      <c r="F8" s="6">
-        <v>0</v>
-      </c>
-      <c r="G8" s="6">
-        <v>1</v>
-      </c>
-      <c r="H8" s="6">
-        <v>1</v>
+        <v>70</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="I8" s="6">
         <v>1</v>
       </c>
       <c r="J8" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" s="6">
         <v>1</v>
@@ -2397,46 +2068,70 @@
       <c r="L8" s="6">
         <v>1</v>
       </c>
-      <c r="M8" s="6" t="str">
-        <f>I8&amp;","&amp;J8&amp;","&amp;K8&amp;","&amp;L8</f>
+      <c r="M8" s="6">
+        <v>1</v>
+      </c>
+      <c r="N8" s="6">
+        <v>1</v>
+      </c>
+      <c r="O8" s="6">
+        <v>1</v>
+      </c>
+      <c r="P8" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>1,1,1,1</v>
       </c>
-      <c r="N8" s="6">
+      <c r="R8" s="6">
         <v>2</v>
       </c>
-      <c r="O8" s="6">
+      <c r="S8" s="6">
         <v>80</v>
       </c>
-      <c r="P8" s="6">
+      <c r="T8" s="6">
         <v>50</v>
       </c>
+      <c r="U8" s="1">
+        <v>102001</v>
+      </c>
+      <c r="V8" s="1">
+        <v>102002</v>
+      </c>
+      <c r="W8" s="1">
+        <v>102003</v>
+      </c>
+      <c r="X8" s="1">
+        <v>102004</v>
+      </c>
     </row>
-    <row r="9" ht="16.15" customHeight="1" spans="1:16">
+    <row r="9" spans="1:24" ht="16.149999999999999" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="6">
         <v>3</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="3">
+        <v>62</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I9" s="3">
         <v>0</v>
       </c>
-      <c r="F9" s="3">
+      <c r="J9" s="3">
         <v>3</v>
-      </c>
-      <c r="G9" s="3">
-        <v>2</v>
-      </c>
-      <c r="H9" s="3">
-        <v>2</v>
-      </c>
-      <c r="I9" s="3">
-        <v>2</v>
-      </c>
-      <c r="J9" s="3">
-        <v>2</v>
       </c>
       <c r="K9" s="3">
         <v>2</v>
@@ -2444,46 +2139,70 @@
       <c r="L9" s="3">
         <v>2</v>
       </c>
-      <c r="M9" s="6" t="str">
-        <f>I9&amp;","&amp;J9&amp;","&amp;K9&amp;","&amp;L9</f>
+      <c r="M9" s="3">
+        <v>2</v>
+      </c>
+      <c r="N9" s="3">
+        <v>2</v>
+      </c>
+      <c r="O9" s="3">
+        <v>2</v>
+      </c>
+      <c r="P9" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>2,2,2,2</v>
       </c>
-      <c r="N9" s="3">
+      <c r="R9" s="3">
         <v>3</v>
       </c>
-      <c r="O9" s="6">
+      <c r="S9" s="6">
         <v>50</v>
       </c>
-      <c r="P9" s="6">
+      <c r="T9" s="6">
         <v>30</v>
       </c>
+      <c r="U9" s="1">
+        <v>103001</v>
+      </c>
+      <c r="V9" s="1">
+        <v>103002</v>
+      </c>
+      <c r="W9" s="1">
+        <v>103003</v>
+      </c>
+      <c r="X9" s="1">
+        <v>103004</v>
+      </c>
     </row>
-    <row r="10" ht="14" customHeight="1" spans="1:16">
+    <row r="10" spans="1:24" ht="14.1" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="6">
         <v>4</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="3">
+        <v>63</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I10" s="3">
         <v>1</v>
       </c>
-      <c r="F10" s="3">
+      <c r="J10" s="3">
         <v>4</v>
-      </c>
-      <c r="G10" s="3">
-        <v>3</v>
-      </c>
-      <c r="H10" s="3">
-        <v>3</v>
-      </c>
-      <c r="I10" s="3">
-        <v>3</v>
-      </c>
-      <c r="J10" s="3">
-        <v>3</v>
       </c>
       <c r="K10" s="3">
         <v>3</v>
@@ -2491,23 +2210,237 @@
       <c r="L10" s="3">
         <v>3</v>
       </c>
-      <c r="M10" s="6" t="str">
-        <f>I10&amp;","&amp;J10&amp;","&amp;K10&amp;","&amp;L10</f>
+      <c r="M10" s="3">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3">
+        <v>3</v>
+      </c>
+      <c r="P10" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>3,3,3,3</v>
       </c>
-      <c r="N10" s="3">
+      <c r="R10" s="3">
         <v>4</v>
       </c>
-      <c r="O10" s="6">
+      <c r="S10" s="6">
         <v>80</v>
       </c>
-      <c r="P10" s="6">
+      <c r="T10" s="6">
         <v>50</v>
+      </c>
+      <c r="U10" s="1">
+        <v>104001</v>
+      </c>
+      <c r="V10" s="1">
+        <v>104002</v>
+      </c>
+      <c r="W10" s="1">
+        <v>104003</v>
+      </c>
+      <c r="X10" s="1">
+        <v>104004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="24.95" customHeight="1">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="6">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I11" s="6">
+        <v>1</v>
+      </c>
+      <c r="J11" s="6">
+        <v>0</v>
+      </c>
+      <c r="K11" s="6">
+        <v>1</v>
+      </c>
+      <c r="L11" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M11" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N11" s="6">
+        <v>-1</v>
+      </c>
+      <c r="O11" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P11" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Q11" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>-1,-1,-1,-1</v>
+      </c>
+      <c r="R11" s="6">
+        <v>5</v>
+      </c>
+      <c r="S11" s="6">
+        <v>-1</v>
+      </c>
+      <c r="T11" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U11" s="1">
+        <v>105001</v>
+      </c>
+      <c r="V11" s="1">
+        <v>105002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="16.149999999999999" customHeight="1">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="6">
+        <v>6</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
+        <v>3</v>
+      </c>
+      <c r="K12" s="3">
+        <v>2</v>
+      </c>
+      <c r="L12" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M12" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N12" s="6">
+        <v>-1</v>
+      </c>
+      <c r="O12" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P12" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Q12" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>-1,-1,-1,-1</v>
+      </c>
+      <c r="R12" s="3">
+        <v>6</v>
+      </c>
+      <c r="S12" s="6">
+        <v>-1</v>
+      </c>
+      <c r="T12" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U12" s="1">
+        <v>106001</v>
+      </c>
+      <c r="V12" s="1">
+        <v>106002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="14.1" customHeight="1">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="6">
+        <v>7</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I13" s="3">
+        <v>1</v>
+      </c>
+      <c r="J13" s="3">
+        <v>4</v>
+      </c>
+      <c r="K13" s="3">
+        <v>3</v>
+      </c>
+      <c r="L13" s="6">
+        <v>-1</v>
+      </c>
+      <c r="M13" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N13" s="6">
+        <v>-1</v>
+      </c>
+      <c r="O13" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P13" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Q13" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>-1,-1,-1,-1</v>
+      </c>
+      <c r="R13" s="3">
+        <v>7</v>
+      </c>
+      <c r="S13" s="6">
+        <v>-1</v>
+      </c>
+      <c r="T13" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U13" s="1">
+        <v>107001</v>
+      </c>
+      <c r="V13" s="1">
+        <v>107002</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/global/Hero.xlsx
+++ b/global/Hero.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB3E14C-0692-4D8B-BF48-F6C7F599FCCB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ECE9453-F69E-4EC9-BEAB-72DADC501743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hero" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="69">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -29,13 +29,6 @@
   </si>
   <si>
     <t>模型资源</t>
-  </si>
-  <si>
-    <t>单位米</t>
-  </si>
-  <si>
-    <t>0:SR -1:SSR</t>
   </si>
   <si>
     <t xml:space="preserve">0:先锋
@@ -50,14 +43,6 @@
 </t>
   </si>
   <si>
-    <t>0:自然
-1:艺术 -
-2:文明 -
-3:破灭</t>
-  </si>
-  <si>
     <t>0: 单手剑
 1: 双手剑
 2: 长柄
@@ -91,251 +76,206 @@
 普攻攻击</t>
   </si>
   <si>
+    <t>导出字段名</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>profession</t>
+  </si>
+  <si>
+    <t>race</t>
+  </si>
+  <si>
+    <t>weaponType</t>
+  </si>
+  <si>
+    <t>initEquipId</t>
+  </si>
+  <si>
+    <t>attId</t>
+  </si>
+  <si>
+    <t>fragmentCompose</t>
+  </si>
+  <si>
+    <t>fragmentTransform</t>
+  </si>
+  <si>
+    <t>skill1</t>
+  </si>
+  <si>
+    <t>skill2</t>
+  </si>
+  <si>
+    <t>导出字段描述</t>
+  </si>
+  <si>
+    <t>英雄名字</t>
+  </si>
+  <si>
+    <t>品质</t>
+  </si>
+  <si>
+    <t>职业</t>
+  </si>
+  <si>
+    <t>种族</t>
+  </si>
+  <si>
+    <t>武器类型</t>
+  </si>
+  <si>
+    <t>武器id</t>
+  </si>
+  <si>
+    <t>衣服id</t>
+  </si>
+  <si>
+    <t>鞋子id</t>
+  </si>
+  <si>
+    <t>饰品id</t>
+  </si>
+  <si>
+    <t>装备位置</t>
+  </si>
+  <si>
+    <t>属性id</t>
+  </si>
+  <si>
+    <t>合成卡牌所需碎片</t>
+  </si>
+  <si>
+    <t>重复获得卡牌转化碎片数</t>
+  </si>
+  <si>
+    <t>技能1</t>
+  </si>
+  <si>
+    <t>技能2</t>
+  </si>
+  <si>
+    <t>技能4</t>
+  </si>
+  <si>
+    <t>字段控制</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>导出字段类型</t>
+  </si>
+  <si>
+    <t>int32</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>[]int32</t>
+  </si>
+  <si>
+    <t>2:SR
+3:SSR</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:无种族
+1:自然（绿）
+2:文明（蓝）
+3:破灭（红）
+4:韵律（黄）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓦尔基里</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>普罗米修斯</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅林</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>洛基</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Demo版本
+技能4
+奥义技能</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>Demo版本
 技能2
-战技技能</t>
+战技1技能</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Demo版本
 技能3
-奥义技能</t>
-  </si>
-  <si>
-    <t>Demo版本
-技能4
-残响技能</t>
-  </si>
-  <si>
-    <t>导出字段名</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>modelResource</t>
-  </si>
-  <si>
-    <t>modelscope</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>profession</t>
-  </si>
-  <si>
-    <t>race</t>
-  </si>
-  <si>
-    <t>weaponType</t>
-  </si>
-  <si>
-    <t>initEquipId</t>
-  </si>
-  <si>
-    <t>attId</t>
-  </si>
-  <si>
-    <t>fragmentCompose</t>
-  </si>
-  <si>
-    <t>fragmentTransform</t>
-  </si>
-  <si>
-    <t>skill1</t>
-  </si>
-  <si>
-    <t>skill2</t>
+战技2技能</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>skill3</t>
-  </si>
-  <si>
-    <t>skill4</t>
-  </si>
-  <si>
-    <t>导出字段描述</t>
-  </si>
-  <si>
-    <t>英雄名字</t>
-  </si>
-  <si>
-    <t>模型范围</t>
-  </si>
-  <si>
-    <t>品质</t>
-  </si>
-  <si>
-    <t>职业</t>
-  </si>
-  <si>
-    <t>种族</t>
-  </si>
-  <si>
-    <t>武器类型</t>
-  </si>
-  <si>
-    <t>武器id</t>
-  </si>
-  <si>
-    <t>衣服id</t>
-  </si>
-  <si>
-    <t>鞋子id</t>
-  </si>
-  <si>
-    <t>饰品id</t>
-  </si>
-  <si>
-    <t>装备位置</t>
-  </si>
-  <si>
-    <t>属性id</t>
-  </si>
-  <si>
-    <t>合成卡牌所需碎片</t>
-  </si>
-  <si>
-    <t>重复获得卡牌转化碎片数</t>
-  </si>
-  <si>
-    <t>技能1</t>
-  </si>
-  <si>
-    <t>技能2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>技能3</t>
-  </si>
-  <si>
-    <t>技能4</t>
-  </si>
-  <si>
-    <t>字段控制</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>导出字段类型</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>101002</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型ID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>modelID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>int32</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>[]int32</t>
-  </si>
-  <si>
-    <t>demo版本防战</t>
-  </si>
-  <si>
-    <t>demo版本法师</t>
-  </si>
-  <si>
-    <t>demo版本治疗</t>
-  </si>
-  <si>
-    <t>怪物1</t>
-  </si>
-  <si>
-    <t>怪物2</t>
-  </si>
-  <si>
-    <t>怪物3</t>
-  </si>
-  <si>
-    <t>meilin</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>waerjili</t>
+    <t>10002</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>puluomixiusi</t>
+    <t>10003</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>demo版本战士</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>monster02a</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>monster12b</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>monster08b</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>icon</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>big_icon</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>头像</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>半身像</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>yase</t>
-  </si>
-  <si>
-    <t>yase_01</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>puluomixiusi_01</t>
-  </si>
-  <si>
-    <t>puluomixiusi</t>
-  </si>
-  <si>
-    <t>meilin_01</t>
-  </si>
-  <si>
-    <t>meilin</t>
-  </si>
-  <si>
-    <t>dafuni_01</t>
-  </si>
-  <si>
-    <t>dafuni</t>
-  </si>
-  <si>
-    <t>monster12b</t>
-  </si>
-  <si>
-    <t>monster08a</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>0.5</t>
+    <t>测试击飞</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -409,7 +349,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,7 +381,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -450,7 +390,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -458,9 +397,30 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1617,36 +1577,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X13"/>
+  <dimension ref="A1:V11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="X11" sqref="X11"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="6" ySplit="6" topLeftCell="G7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="14.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="9.375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="16.125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="16.75" style="1" customWidth="1"/>
-    <col min="19" max="19" width="18.5" style="1" customWidth="1"/>
-    <col min="20" max="20" width="20.125" style="1" customWidth="1"/>
-    <col min="21" max="24" width="9.25" style="1" customWidth="1"/>
-    <col min="25" max="16384" width="6" style="1"/>
+    <col min="2" max="2" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="13.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.375" style="1" customWidth="1"/>
+    <col min="11" max="14" width="9.375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16.125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="16.75" style="1" customWidth="1"/>
+    <col min="17" max="17" width="16.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.25" style="1" customWidth="1"/>
+    <col min="20" max="21" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.25" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="6" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="14.1" customHeight="1">
+    <row r="1" spans="1:22" ht="14.1" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1667,774 +1628,578 @@
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
     </row>
-    <row r="2" spans="1:24" ht="120.95" customHeight="1">
+    <row r="2" spans="1:22" ht="120.95" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="H2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="O2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="R2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="V2" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="W2" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="X2" s="9" t="s">
-        <v>17</v>
+      <c r="T2" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="U2" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="V2" s="14" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="16.149999999999999" customHeight="1">
+    <row r="3" spans="1:22" ht="16.149999999999999" customHeight="1">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
+      <c r="O3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="P3" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="Q3" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="U3" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="V3" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="W3" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="X3" s="10" t="s">
-        <v>34</v>
+        <v>22</v>
+      </c>
+      <c r="S3" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="T3" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="U3" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="V3" s="16" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="16.149999999999999" customHeight="1">
+    <row r="4" spans="1:22" ht="16.149999999999999" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="P4" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="H4" s="5" t="s">
+      <c r="Q4" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="R4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="S4" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="T4" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="U4" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="V4" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="M4" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="R4" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="S4" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="T4" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="U4" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="V4" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="W4" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="X4" s="10" t="s">
-        <v>53</v>
-      </c>
     </row>
-    <row r="5" spans="1:24" ht="16.149999999999999" customHeight="1">
+    <row r="5" spans="1:22" ht="16.149999999999999" customHeight="1">
       <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E5" s="5"/>
-      <c r="F5" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
+      <c r="P5" s="15"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="16"/>
     </row>
-    <row r="6" spans="1:24" ht="16.149999999999999" customHeight="1">
+    <row r="6" spans="1:22" ht="16.149999999999999" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>57</v>
+        <v>46</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>57</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
+      <c r="O6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="P6" s="15" t="s">
+        <v>45</v>
+      </c>
       <c r="Q6" s="5" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="S6" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="T6" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="U6" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="V6" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="W6" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="X6" s="10" t="s">
-        <v>57</v>
+        <v>45</v>
+      </c>
+      <c r="S6" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="T6" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="U6" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="V6" s="16" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="24.95" customHeight="1">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="6">
+    <row r="7" spans="1:22" s="12" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="10">
         <v>1</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="10">
+        <v>2</v>
+      </c>
+      <c r="H7" s="10">
+        <v>1</v>
+      </c>
+      <c r="I7" s="10">
+        <v>3</v>
+      </c>
+      <c r="J7" s="10">
+        <v>1</v>
+      </c>
+      <c r="K7" s="10">
+        <v>0</v>
+      </c>
+      <c r="L7" s="10">
+        <v>0</v>
+      </c>
+      <c r="M7" s="10">
+        <v>0</v>
+      </c>
+      <c r="N7" s="10">
+        <v>0</v>
+      </c>
+      <c r="O7" s="10" t="str">
+        <f t="shared" ref="O7:O9" si="0">K7&amp;","&amp;L7&amp;","&amp;M7&amp;","&amp;N7</f>
+        <v>0,0,0,0</v>
+      </c>
+      <c r="P7" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="10">
+        <v>50</v>
+      </c>
+      <c r="R7" s="10">
+        <v>30</v>
+      </c>
+      <c r="S7" s="8">
+        <v>101001</v>
+      </c>
+      <c r="T7" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="I7" s="6">
+      <c r="U7" s="13">
+        <v>101003</v>
+      </c>
+      <c r="V7" s="8">
+        <v>101004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" s="12" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10">
+        <v>2</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="10">
+        <v>3</v>
+      </c>
+      <c r="H8" s="10">
         <v>0</v>
       </c>
-      <c r="J7" s="6">
+      <c r="I8" s="10">
+        <v>2</v>
+      </c>
+      <c r="J8" s="10">
+        <v>0</v>
+      </c>
+      <c r="K8" s="10">
         <v>1</v>
       </c>
-      <c r="K7" s="6">
-        <v>0</v>
-      </c>
-      <c r="L7" s="6">
-        <v>0</v>
-      </c>
-      <c r="M7" s="6">
-        <v>0</v>
-      </c>
-      <c r="N7" s="6">
-        <v>0</v>
-      </c>
-      <c r="O7" s="6">
-        <v>0</v>
-      </c>
-      <c r="P7" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="6" t="str">
-        <f t="shared" ref="Q7:Q13" si="0">M7&amp;","&amp;N7&amp;","&amp;O7&amp;","&amp;P7</f>
-        <v>0,0,0,0</v>
-      </c>
-      <c r="R7" s="6">
+      <c r="L8" s="10">
         <v>1</v>
       </c>
-      <c r="S7" s="6">
-        <v>50</v>
-      </c>
-      <c r="T7" s="6">
-        <v>30</v>
-      </c>
-      <c r="U7" s="1">
-        <v>101001</v>
-      </c>
-      <c r="V7" s="1">
-        <v>101002</v>
-      </c>
-      <c r="W7" s="1">
-        <v>101003</v>
-      </c>
-      <c r="X7" s="1">
-        <v>101004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" ht="24.95" customHeight="1">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="6">
-        <v>2</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="I8" s="6">
+      <c r="M8" s="10">
         <v>1</v>
       </c>
-      <c r="J8" s="6">
-        <v>0</v>
-      </c>
-      <c r="K8" s="6">
+      <c r="N8" s="10">
         <v>1</v>
       </c>
-      <c r="L8" s="6">
-        <v>1</v>
-      </c>
-      <c r="M8" s="6">
-        <v>1</v>
-      </c>
-      <c r="N8" s="6">
-        <v>1</v>
-      </c>
-      <c r="O8" s="6">
-        <v>1</v>
-      </c>
-      <c r="P8" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="6" t="str">
+      <c r="O8" s="10" t="str">
         <f t="shared" si="0"/>
         <v>1,1,1,1</v>
       </c>
-      <c r="R8" s="6">
+      <c r="P8" s="10">
         <v>2</v>
       </c>
-      <c r="S8" s="6">
+      <c r="Q8" s="10">
         <v>80</v>
       </c>
-      <c r="T8" s="6">
+      <c r="R8" s="10">
         <v>50</v>
       </c>
-      <c r="U8" s="1">
+      <c r="S8" s="8">
         <v>102001</v>
       </c>
-      <c r="V8" s="1">
+      <c r="T8" s="13">
         <v>102002</v>
       </c>
-      <c r="W8" s="1">
+      <c r="U8" s="13">
         <v>102003</v>
       </c>
-      <c r="X8" s="1">
+      <c r="V8" s="8">
         <v>102004</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="16.149999999999999" customHeight="1">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="6">
+    <row r="9" spans="1:22" s="12" customFormat="1" ht="16.149999999999999" customHeight="1">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10">
         <v>3</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="D9" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3">
+      <c r="G9" s="9">
+        <v>2</v>
+      </c>
+      <c r="H9" s="9">
         <v>3</v>
       </c>
-      <c r="K9" s="3">
+      <c r="I9" s="9">
+        <v>3</v>
+      </c>
+      <c r="J9" s="9">
+        <v>4</v>
+      </c>
+      <c r="K9" s="9">
         <v>2</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="9">
         <v>2</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="9">
         <v>2</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N9" s="9">
         <v>2</v>
       </c>
-      <c r="O9" s="3">
-        <v>2</v>
-      </c>
-      <c r="P9" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q9" s="6" t="str">
+      <c r="O9" s="10" t="str">
         <f t="shared" si="0"/>
         <v>2,2,2,2</v>
       </c>
-      <c r="R9" s="3">
+      <c r="P9" s="9">
         <v>3</v>
       </c>
-      <c r="S9" s="6">
+      <c r="Q9" s="10">
         <v>50</v>
       </c>
-      <c r="T9" s="6">
+      <c r="R9" s="10">
         <v>30</v>
       </c>
-      <c r="U9" s="1">
+      <c r="S9" s="8">
         <v>103001</v>
       </c>
-      <c r="V9" s="1">
+      <c r="T9" s="13">
         <v>103002</v>
       </c>
-      <c r="W9" s="1">
+      <c r="U9" s="13">
         <v>103003</v>
       </c>
-      <c r="X9" s="1">
+      <c r="V9" s="8">
         <v>103004</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="14.1" customHeight="1">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="6">
+    <row r="10" spans="1:22" s="12" customFormat="1" ht="13.35" customHeight="1">
+      <c r="C10" s="12">
         <v>4</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="D10" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="11">
+        <v>10004</v>
+      </c>
+      <c r="G10" s="12">
+        <v>3</v>
+      </c>
+      <c r="H10" s="12">
+        <v>4</v>
+      </c>
+      <c r="I10" s="12">
+        <v>2</v>
+      </c>
+      <c r="J10" s="12">
+        <v>5</v>
+      </c>
+      <c r="K10" s="12">
+        <v>3</v>
+      </c>
+      <c r="L10" s="12">
+        <v>3</v>
+      </c>
+      <c r="M10" s="12">
+        <v>3</v>
+      </c>
+      <c r="N10" s="12">
+        <v>3</v>
+      </c>
+      <c r="O10" s="10" t="str">
+        <f t="shared" ref="O10:O11" si="1">K10&amp;","&amp;L10&amp;","&amp;M10&amp;","&amp;N10</f>
+        <v>3,3,3,3</v>
+      </c>
+      <c r="P10" s="9">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="10">
+        <v>80</v>
+      </c>
+      <c r="R10" s="10">
+        <v>50</v>
+      </c>
+      <c r="S10" s="8">
+        <v>108001</v>
+      </c>
+      <c r="T10" s="13">
+        <v>108002</v>
+      </c>
+      <c r="U10" s="13">
+        <v>108003</v>
+      </c>
+      <c r="V10" s="8">
+        <v>108004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="13.35" customHeight="1">
+      <c r="B11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="1">
+        <v>5</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="10">
+        <v>3</v>
+      </c>
+      <c r="H11" s="10">
+        <v>0</v>
+      </c>
+      <c r="I11" s="10">
+        <v>2</v>
+      </c>
+      <c r="J11" s="10">
+        <v>0</v>
+      </c>
+      <c r="K11" s="10">
         <v>1</v>
       </c>
-      <c r="J10" s="3">
-        <v>4</v>
-      </c>
-      <c r="K10" s="3">
-        <v>3</v>
-      </c>
-      <c r="L10" s="3">
-        <v>3</v>
-      </c>
-      <c r="M10" s="3">
-        <v>3</v>
-      </c>
-      <c r="N10" s="3">
-        <v>3</v>
-      </c>
-      <c r="O10" s="3">
-        <v>3</v>
-      </c>
-      <c r="P10" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q10" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>3,3,3,3</v>
-      </c>
-      <c r="R10" s="3">
-        <v>4</v>
-      </c>
-      <c r="S10" s="6">
+      <c r="L11" s="10">
+        <v>1</v>
+      </c>
+      <c r="M11" s="10">
+        <v>1</v>
+      </c>
+      <c r="N11" s="10">
+        <v>1</v>
+      </c>
+      <c r="O11" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>1,1,1,1</v>
+      </c>
+      <c r="P11" s="10">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="10">
         <v>80</v>
       </c>
-      <c r="T10" s="6">
+      <c r="R11" s="10">
         <v>50</v>
       </c>
-      <c r="U10" s="1">
-        <v>104001</v>
-      </c>
-      <c r="V10" s="1">
-        <v>104002</v>
-      </c>
-      <c r="W10" s="1">
-        <v>104003</v>
-      </c>
-      <c r="X10" s="1">
-        <v>104004</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" ht="24.95" customHeight="1">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="6">
-        <v>5</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="I11" s="6">
-        <v>1</v>
-      </c>
-      <c r="J11" s="6">
-        <v>0</v>
-      </c>
-      <c r="K11" s="6">
-        <v>1</v>
-      </c>
-      <c r="L11" s="6">
-        <v>-1</v>
-      </c>
-      <c r="M11" s="6">
-        <v>-1</v>
-      </c>
-      <c r="N11" s="6">
-        <v>-1</v>
-      </c>
-      <c r="O11" s="6">
-        <v>-1</v>
-      </c>
-      <c r="P11" s="6">
-        <v>-1</v>
-      </c>
-      <c r="Q11" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>-1,-1,-1,-1</v>
-      </c>
-      <c r="R11" s="6">
-        <v>5</v>
-      </c>
-      <c r="S11" s="6">
-        <v>-1</v>
-      </c>
-      <c r="T11" s="6">
-        <v>-1</v>
-      </c>
-      <c r="U11" s="1">
-        <v>105001</v>
-      </c>
-      <c r="V11" s="1">
-        <v>105002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" ht="16.149999999999999" customHeight="1">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="6">
-        <v>6</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3">
-        <v>3</v>
-      </c>
-      <c r="K12" s="3">
-        <v>2</v>
-      </c>
-      <c r="L12" s="6">
-        <v>-1</v>
-      </c>
-      <c r="M12" s="6">
-        <v>-1</v>
-      </c>
-      <c r="N12" s="6">
-        <v>-1</v>
-      </c>
-      <c r="O12" s="6">
-        <v>-1</v>
-      </c>
-      <c r="P12" s="6">
-        <v>-1</v>
-      </c>
-      <c r="Q12" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>-1,-1,-1,-1</v>
-      </c>
-      <c r="R12" s="3">
-        <v>6</v>
-      </c>
-      <c r="S12" s="6">
-        <v>-1</v>
-      </c>
-      <c r="T12" s="6">
-        <v>-1</v>
-      </c>
-      <c r="U12" s="1">
-        <v>106001</v>
-      </c>
-      <c r="V12" s="1">
-        <v>106002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" ht="14.1" customHeight="1">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="6">
-        <v>7</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="I13" s="3">
-        <v>1</v>
-      </c>
-      <c r="J13" s="3">
-        <v>4</v>
-      </c>
-      <c r="K13" s="3">
-        <v>3</v>
-      </c>
-      <c r="L13" s="6">
-        <v>-1</v>
-      </c>
-      <c r="M13" s="6">
-        <v>-1</v>
-      </c>
-      <c r="N13" s="6">
-        <v>-1</v>
-      </c>
-      <c r="O13" s="6">
-        <v>-1</v>
-      </c>
-      <c r="P13" s="6">
-        <v>-1</v>
-      </c>
-      <c r="Q13" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>-1,-1,-1,-1</v>
-      </c>
-      <c r="R13" s="3">
-        <v>7</v>
-      </c>
-      <c r="S13" s="6">
-        <v>-1</v>
-      </c>
-      <c r="T13" s="6">
-        <v>-1</v>
-      </c>
-      <c r="U13" s="1">
-        <v>107001</v>
-      </c>
-      <c r="V13" s="1">
-        <v>107002</v>
+      <c r="S11" s="8">
+        <v>100001</v>
+      </c>
+      <c r="T11" s="13">
+        <v>100002</v>
+      </c>
+      <c r="U11" s="13">
+        <v>100003</v>
+      </c>
+      <c r="V11" s="8">
+        <v>100004</v>
       </c>
     </row>
   </sheetData>
